--- a/StructureDefinition-ext-R5-ConceptMap.author.xlsx
+++ b/StructureDefinition-ext-R5-ConceptMap.author.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
 *  R5: `ConceptMap.author` 0..* `ContactDetail`
 Following are the generation technical comments:
 Note that the source element matches Basic element path ``, but the definitions are not compatible (source: `ContactDetail`:0..* -&gt; basic: `Reference(http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/RelatedPerson,http://hl7.org/fhir/StructureDefinition/Organization)`:0..1).
-Element `ConceptMap.author` is mapped to FHIR R4 structure `ConceptMap`, but has no target element specified.</t>
+Element `ConceptMap.author` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -141,7 +141,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:ConceptMap</t>
   </si>
   <si>
     <t>ID</t>

--- a/StructureDefinition-ext-R5-ConceptMap.author.xlsx
+++ b/StructureDefinition-ext-R5-ConceptMap.author.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
 *  R5: `ConceptMap.author` 0..* `ContactDetail`
 Following are the generation technical comments:
 Note that the source element matches Basic element path ``, but the definitions are not compatible (source: `ContactDetail`:0..* -&gt; basic: `Reference(http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/RelatedPerson,http://hl7.org/fhir/StructureDefinition/Organization)`:0..1).
-Element `ConceptMap.author` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+Element `ConceptMap.author` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>Copyright</t>
